--- a/data/IEEE9/ieee18_3/ieee18_3_2035.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F563365-D7B4-4210-B438-C9401BB55D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45A1FC-3351-45BD-B518-C4F0342CB760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="4275" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5975409836065571E-5</v>
+        <v>7.4857923497267758E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1325774892566515E-5</v>
+        <v>4.1397092438511473E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.425349527965308E-2</v>
+        <v>6.4437268347862231E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65822889787728733</v>
+        <v>1.3303152462362018</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6093921447180717</v>
+        <v>3.2865481692137464</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>4.7205291374823339</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>5.1599908990265986</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>5.3039917978344384</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2396612609619875</v>
+        <v>4.3869653565234801</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>3.8001309393928682</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96118276810320125</v>
+        <v>2.0214565432273512</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22960280556210416</v>
+        <v>0.45483222435159681</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4345962934755037E-3</v>
+        <v>2.9535806042142723E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4513959982432922E-4</v>
+        <v>4.706680316627121E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7875102861845109E-5</v>
+        <v>1.292859102130383E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5229094418534674</v>
+        <v>6.1773238476944492</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3359457123160929</v>
+        <v>5.7267068061426265</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1760271872491792</v>
+        <v>5.2933786454152987</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458340141357096</v>
+        <v>5.6336651342218751</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9272475454356304</v>
+        <v>4.926112374195883</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6337870154306069</v>
+        <v>4.3060327395135314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0941520067230233</v>
+        <v>3.8209089245472709</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8802261881232414</v>
+        <v>3.2326695865978539</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8602100349234441</v>
+        <v>3.0680547450994307</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8580080738293612</v>
+        <v>3.0671879314008503</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.75726482206915</v>
+        <v>2.9287747034485836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470416584154806</v>
+        <v>3.0051286399159647</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5421765513185075</v>
+        <v>2.5973499811680121</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6795154539955948</v>
+        <v>2.6392385705645061</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0751130087759768</v>
+        <v>3.4249438008923883</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2425735042164998</v>
+        <v>3.9245036323788751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499219291572041</v>
+        <v>3.7498698819286735</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5942603850335986</v>
+        <v>4.2805296353054372</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5406924654413761</v>
+        <v>3.9878182710002186</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.39770225859123</v>
+        <v>4.0382353828904929</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5223421542909246</v>
+        <v>4.6021681411623891</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6972414885485936</v>
+        <v>4.3591781633108582</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6628829965232237</v>
+        <v>4.6139061820946949</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098632544718436</v>
+        <v>5.2140451473627527</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>5.5053278688524585E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0280393770381884E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4931782314893738E-2</v>
+        <v>5.1380242919479624E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>1.0808811375669141</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>2.4140882170771074</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3375697171186554</v>
+        <v>3.5403968531117505</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5547013764788549</v>
+        <v>3.642346516959952</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7845956938630803</v>
+        <v>3.7790941559570372</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.19348267826174</v>
+        <v>3.6365633876444647</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>2.6582646715464531</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0008191709115808</v>
+        <v>1.4566378032079441</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20992256508535237</v>
+        <v>0.3280040079458631</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4767903021071361E-3</v>
+        <v>2.1729914445290715E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3288261983311274E-4</v>
+        <v>3.8609486972331856E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2057236902258382E-5</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6702185792349721E-5</v>
+        <v>5.3963114754098352E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1534851117003441E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5610069350134388E-2</v>
+        <v>4.9345381813757652E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70672997456298225</v>
+        <v>1.0289156982608123</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7618608742176785</v>
+        <v>2.5919684014933155</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2014006073835883</v>
+        <v>3.5744391305455174</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6558776686166317</v>
+        <v>3.9838165029249475</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>4.0575537253433458</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2165719696118638</v>
+        <v>3.4287597654933517</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8817956094108914</v>
+        <v>2.7130742524030813</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0206373723157705</v>
+        <v>1.4120468500485173</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21648264524426963</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4767903021071361E-3</v>
+        <v>2.0675064229499903E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>3.7506358773122374E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>9.4055499679985356E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>2.8616803278688522E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35336498728149113</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0893528778805384</v>
+        <v>1.685092732971458</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1544645675061791</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87695329370604636</v>
+        <v>1.3017275453449124</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.71345525055082981</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.1607219638934729</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8916880764999678E-4</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.9120888786297677E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>5.0906327146383832E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5975409836065571E-5</v>
+        <v>7.0497267759562826E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>4.265154978513303E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3914351762032752E-2</v>
+        <v>6.9185277594546818E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65822889787728733</v>
+        <v>1.3996024986443374</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7279789343288769</v>
+        <v>3.4220759287689524</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.360264568741167</v>
+        <v>4.448190918012199</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4029369382721901</v>
+        <v>5.2105790450954865</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5724360219497027</v>
+        <v>5.0387922079427163</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3089291350123582</v>
+        <v>4.5716796873244689</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9183353299819768</v>
+        <v>3.5808926159663561</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96118276810320125</v>
+        <v>1.962001939014782</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.4460854508063738</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3924022848438712E-3</v>
+        <v>2.7848045696877424E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>5.1479315963109137E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7228673310779921E-5</v>
+        <v>1.2282161470238639E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8164852286745905</v>
+        <v>6.3608087144576508</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2692267980697709</v>
+        <v>5.671107710937358</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3724824771821189</v>
+        <v>5.4025204731558212</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2817466801292472</v>
+        <v>5.5242735782175654</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704077872718319</v>
+        <v>4.7366465136498874</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4582012144018996</v>
+        <v>3.9715835946969458</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1823268280587298</v>
+        <v>3.5269928534282498</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0583528796296537</v>
+        <v>3.1666967378917747</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.918341598514802</v>
+        <v>3.1649406844183603</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6987502389297013</v>
+        <v>2.8312503982161692</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7224674988598596</v>
+        <v>3.0157680114718084</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470416584154806</v>
+        <v>2.976233172224465</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6882774877592084</v>
+        <v>2.651461439109013</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6475246834432977</v>
+        <v>2.7725334478657437</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0751130087759768</v>
+        <v>3.4920995616942001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1304448290056746</v>
+        <v>3.9245036323788751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499219291572041</v>
+        <v>3.7889310265320972</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6202029888839347</v>
+        <v>4.4967180007249041</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5653593825815841</v>
+        <v>3.9878182710002186</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4229412297342954</v>
+        <v>4.2485601424160393</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.787851854742601</v>
+        <v>4.6021681411623891</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6699966250279008</v>
+        <v>4.677034904385609</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6892481747066217</v>
+        <v>4.2184285093437204</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098632544718436</v>
+        <v>5.2140451473627527</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4885245901639338E-5</v>
+        <v>5.3418032786885243E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.048946999481881E-5</v>
+        <v>3.167504800219438E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2218634173931116E-2</v>
+        <v>4.9854097090188142E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68594379884054157</v>
+        <v>1.0081295225383717</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7449199042732777</v>
+        <v>2.5411454916601133</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2694851622511218</v>
+        <v>3.4042277433766825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6052895225477433</v>
+        <v>3.9079342838216151</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5724360219497027</v>
+        <v>4.1768935407946204</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2627505523121112</v>
+        <v>3.4980276395437229</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8635257491253487</v>
+        <v>2.630859881118139</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99091007020948585</v>
+        <v>1.5309560584736557</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21429595185796388</v>
+        <v>0.34440420834315622</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3502082762122387E-3</v>
+        <v>2.1307974358974391E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>3.4932392974966909E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6702185792349721E-5</v>
+        <v>5.287295081967212E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0907622443692663E-5</v>
+        <v>3.1988662338849774E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4931782314893738E-2</v>
+        <v>5.3415104025201582E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67901507359972801</v>
+        <v>1.0600949618444733</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6940969944400754</v>
+        <v>2.6682027662431187</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3148748654961442</v>
+        <v>3.4042277433766825</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4788191573755225</v>
+        <v>3.718228736063284</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5193961039713582</v>
+        <v>3.8984339714083118</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3320184263624819</v>
+        <v>3.3941258284681668</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8087161682687207</v>
+        <v>2.7678838332597091</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97109186880529608</v>
+        <v>1.4566378032079441</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20773587169904661</v>
+        <v>0.33128404802532174</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>2.0464094186341741E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4268820382608591E-4</v>
+        <v>3.7138649373385878E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>9.2116211026789789E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>2.7799180327868847E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.5523909664441802E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33604317417945723</v>
+        <v>0.50406476126918587</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>1.2451612909134555</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1007003036917942</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.859114368031642</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1429199218311172</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9134930142771317</v>
+        <v>1.3702395214156975</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.75061437818368559</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>1.0126562071591789E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.8385469986824691E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>4.7997394166590475E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6338797814207646E-5</v>
+        <v>7.1950819672131141E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1325774892566515E-5</v>
+        <v>4.097893998963762E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3914351762032752E-2</v>
+        <v>6.7828703524065503E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67208634835891445</v>
+        <v>1.3996024986443374</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7788018441620792</v>
+        <v>3.3204301091025479</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2467903106286107</v>
+        <v>4.6751394342373107</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5294073034444109</v>
+        <v>5.1599908990265986</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6785158579063912</v>
+        <v>5.5691913877261605</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4243755917629763</v>
+        <v>4.7102154354252104</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7539065874120927</v>
+        <v>3.4712734542531001</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94136456669901147</v>
+        <v>2.0016383418231616</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21210925847165812</v>
+        <v>0.43296529048853927</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420531623931626E-3</v>
+        <v>2.7848045696877424E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>5.0989036763460476E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2703666453323571E-5</v>
+        <v>1.3316448751942946E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5596064152061082</v>
+        <v>6.3608087144576508</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1691484267002878</v>
+        <v>5.4487113301162848</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2742548322156493</v>
+        <v>5.2388077315450392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4130165473344172</v>
+        <v>5.4695778002154114</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9840873035994293</v>
+        <v>4.926112374195883</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5334522719856309</v>
+        <v>4.055195880901092</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.248457944060509</v>
+        <v>3.7474299067675156</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.959393606570536</v>
+        <v>3.3976017083630508</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9958503499699458</v>
+        <v>3.2941219368435992</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7518361838962548</v>
+        <v>2.9787113564565946</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6528728524412795</v>
+        <v>2.8997769341075079</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6817162196452802</v>
+        <v>2.976233172224465</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.655810612994608</v>
+        <v>2.8408515419025138</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675477570625551</v>
+        <v>2.5592616441837635</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0952597370165202</v>
+        <v>3.5256774420951058</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.309850709342995</v>
+        <v>3.5507413816761249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4608521100156922</v>
+        <v>3.7889310265320972</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6720881965846064</v>
+        <v>4.2805296353054372</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4666917140207536</v>
+        <v>4.234487442402294</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5743750565926895</v>
+        <v>4.3326900462262579</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6285460344715954</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7789760791106723</v>
+        <v>4.6316267985177877</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6365178183398252</v>
+        <v>4.2184285093437204</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.86027619512471</v>
+        <v>4.7671269918745161</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7792349726775954E-5</v>
+        <v>5.1782786885245893E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698546219255736E-5</v>
+        <v>3.1988662338849774E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5270925832514066E-2</v>
+        <v>4.9854097090188142E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>1.0808811375669141</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6093921447180717</v>
+        <v>2.5411454916601133</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>3.2340163562078486</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5547013764788549</v>
+        <v>3.6802876265116176</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6519958989172192</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3089291350123582</v>
+        <v>3.2902240173926103</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8087161682687207</v>
+        <v>2.850098204544651</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96118276810320125</v>
+        <v>1.4566378032079441</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21866933863057539</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3783376152999936E-3</v>
+        <v>2.0253124143183579E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4513959982432922E-4</v>
+        <v>3.7874068172858864E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1410807351193193E-5</v>
+        <v>9.696443265977872E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6702185792349721E-5</v>
+        <v>5.5053278688524585E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1116698668129589E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.425349527965308E-2</v>
+        <v>5.1888958195910113E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69980124932216869</v>
+        <v>1.0912742254281345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7110379643844762</v>
+        <v>2.6682027662431187</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1787057557610767</v>
+        <v>3.4382700208104495</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5041132304099669</v>
+        <v>3.9458753933732806</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5459160629605302</v>
+        <v>4.0575537253433458</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4012863004128526</v>
+        <v>3.5672955135940931</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9000654696964341</v>
+        <v>2.850098204544651</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305464730178653</v>
+        <v>1.4863651053142288</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20992256508535237</v>
+        <v>0.31160380754856992</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642729457561161E-3</v>
+        <v>2.1940884488448878E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3778541182959933E-4</v>
+        <v>3.4932392974966909E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4642955106519151E-5</v>
+        <v>9.8903721312974287E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>1.6151138337752581E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>1.257867018371756</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0893528778805384</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3152917977910936</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3657778879423679</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>1.6624289772088978</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94089780470544571</v>
+        <v>1.3154299405590695</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48554593440264804</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.1607219638934729</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2433048150969054E-4</v>
+        <v>1.107592726580352E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>4.6058105513394895E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3842759562841529E-5</v>
+        <v>9.3223551912568299E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>5.0052848130200234E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.312926509245342E-2</v>
+        <v>8.3721514591233101E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>1.8011360754175039</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2005359124773669</v>
+        <v>4.487367350934238</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9068508008426863</v>
+        <v>5.8137016016853726</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>6.7156561229423151</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4697247859217333</v>
+        <v>6.6025830877733958</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>5.6625448891975996</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>4.3631021410730311</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>2.5335546161346398</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.5443747085631947</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7561027325227402E-3</v>
+        <v>3.617571628996845E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9173718935722774E-4</v>
+        <v>6.3159597695894667E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8217975678888173E-5</v>
+        <v>1.5174287281704304E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5860228729327908</v>
+        <v>4.5368822332154224</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4419499211304379</v>
+        <v>4.1098176777195272</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4565615214162868</v>
+        <v>4.2196039738613091</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3907813771840383</v>
+        <v>3.86388909443885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0675462032081762</v>
+        <v>3.6590594317945389</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9030640178672849</v>
+        <v>3.1083378958498988</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6608290247399404</v>
+        <v>2.71097521220437</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6130971229162963</v>
+        <v>2.6884952048604935</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3936388674791598</v>
+        <v>2.3227314457985999</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2549968118278139</v>
+        <v>2.0698732139521239</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3711689035592696</v>
+        <v>2.1077839132383591</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2985618755334261</v>
+        <v>2.0999845511926694</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989882325974985</v>
+        <v>2.0382799954157478</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2275020635087575</v>
+        <v>2.005325153256881</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5222431137907704</v>
+        <v>2.4375788423446973</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6572109925989178</v>
+        <v>2.7062199710790407</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.651395697157936</v>
+        <v>2.8927509661099897</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9223707481277084</v>
+        <v>3.1405066677333848</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.738230470596847</v>
+        <v>3.0177612336750821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9839608170788197</v>
+        <v>3.1491441540933645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.136759409684247</v>
+        <v>3.4575394978709499</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9347713467818948</v>
+        <v>3.4597473735856803</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0740570862125232</v>
+        <v>3.1604679408952734</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.325316100114303</v>
+        <v>3.9127915146154142</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8457786885245901E-5</v>
+        <v>6.9917663934426224E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7660784493005394E-5</v>
+        <v>3.9515406418579133E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2706429160174468E-2</v>
+        <v>6.342538984184326E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83062100565370323</v>
+        <v>1.2590465769908765</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1142403864978618</v>
+        <v>3.1713605797467928</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9940563248679668</v>
+        <v>4.4038789632766697</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3578280614711575</v>
+        <v>4.7489282583663517</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2676048954796908</v>
+        <v>5.2045871788825995</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>4.3353859307919125</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1815510705365155</v>
+        <v>3.6167820379947493</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1798416104548566</v>
+        <v>1.8070205718019121</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27218735428159735</v>
+        <v>0.41661329736979186</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8439078691488773E-3</v>
+        <v>2.6604956397719517E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0376758891835054E-4</v>
+        <v>4.376057840358416E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9000155435677061E-5</v>
+        <v>1.1732696351833227E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7073278688524591E-5</v>
+        <v>6.9225409836065572E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5553296150681172E-5</v>
+        <v>3.8329944226021757E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.101508543105864E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90931141671563309</v>
+        <v>1.2590465769908765</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1358142679927381</v>
+        <v>3.1713605797467928</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1659521722442343</v>
+        <v>4.7489282583663517</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4360381375147262</v>
+        <v>5.0529972610510683</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787345510883205</v>
+        <v>4.3353859307919125</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2734058524538425</v>
+        <v>3.3412176922427683</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2170997665744836</v>
+        <v>1.9187950401607932</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7209806778722854E-3</v>
+        <v>2.5551294758205867E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1579798847947334E-4</v>
+        <v>4.556513833775258E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9782335192465936E-5</v>
+        <v>1.1732696351833227E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.261363387978142E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>2.0350434305568254E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2198886444645145E-2</v>
+        <v>3.076131407329398E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42405388183373272</v>
+        <v>0.62952328849543826</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.5856802898733964</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>2.1147339576130544</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>2.2119315973428124</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1711484694459189</v>
+        <v>1.7394999325593794</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.95008298105048994</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.20414051571119801</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>1.3039062788981345E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>2.1429149218249975E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>5.7490212123982808E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6150273224043715E-5</v>
+        <v>9.3223551912568299E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5289860107890643E-5</v>
+        <v>5.5321568986010788E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3552101024732379E-2</v>
+        <v>8.203017086211728E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>1.8361095914450283</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0495187420132335</v>
+        <v>4.2284807729957237</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>5.7555645856685187</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>6.3958629742307762</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4697247859217333</v>
+        <v>6.8047029782154382</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8607648658967042</v>
+        <v>5.6625448891975996</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2045147660158473</v>
+        <v>4.822376050659666</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>2.6080709283738939</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28051962022899318</v>
+        <v>0.58325861631770859</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7034196505470579E-3</v>
+        <v>3.3717172464436613E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>5.7745917893389407E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5871436408521522E-5</v>
+        <v>1.5956467038493187E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7221293399292534</v>
+        <v>4.6276198778797308</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3701278646266011</v>
+        <v>4.1098176777195272</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4816284757164531</v>
+        <v>4.1360474595274219</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3424827635035528</v>
+        <v>3.8236402497051118</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.046231293896752</v>
+        <v>3.5524848852374165</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8650027375099392</v>
+        <v>3.2986442976366268</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6437070760312813</v>
+        <v>2.9392678616531596</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4901944849798163</v>
+        <v>2.5092621912031272</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.422080477019551</v>
+        <v>2.346432787082259</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3072883456539728</v>
+        <v>2.0916613530463564</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2779826673950472</v>
+        <v>2.1743455104985179</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.27284777898821</v>
+        <v>2.2499834477064318</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1750084679455486</v>
+        <v>1.998313720995831</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1910416061768141</v>
+        <v>2.1268600110300255</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4625473054068185</v>
+        <v>2.6116916167978905</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6906900025504108</v>
+        <v>2.7062199710790407</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.769352532669217</v>
+        <v>2.7523261619298935</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9033373743838697</v>
+        <v>3.1405066677333848</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8649764424112008</v>
+        <v>3.0479388460118328</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9083813573805788</v>
+        <v>3.180635595634298</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9915427507736672</v>
+        <v>3.4229641028922404</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9347713467818948</v>
+        <v>3.4261575932596058</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8765278399065686</v>
+        <v>3.357997187201228</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.325316100114303</v>
+        <v>3.6146740658828107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6611775956284149E-5</v>
+        <v>7.1302172131147541E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6607040321843284E-5</v>
+        <v>3.9120252354393341E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2706429160174468E-2</v>
+        <v>6.5962405435516999E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86559452168122764</v>
+        <v>1.3508520565631279</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.092666505002986</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9649878168595403</v>
+        <v>4.3166734392513888</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1019935425019263</v>
+        <v>4.7009592860596197</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5034114343287408</v>
+        <v>5.0529972610510683</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0082269723862249</v>
+        <v>4.5565790905261938</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2504421569745108</v>
+        <v>3.5823364947757517</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.8070205718019121</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6858586232218306E-3</v>
+        <v>2.6341540987841103E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9474478924750844E-4</v>
+        <v>4.6016278321294683E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2128874462832587E-5</v>
+        <v>1.1615369388314893E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7996284153005466E-5</v>
+        <v>7.1302172131147541E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080168236262226E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>6.4693897638680137E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90931141671563309</v>
+        <v>1.2590465769908765</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.092666505002986</v>
+        <v>3.07427811301985</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0231248328763938</v>
+        <v>4.4910844873019506</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0380349127596187</v>
+        <v>4.8448662029798131</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2676048954796908</v>
+        <v>4.8003473979985145</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312724445987998</v>
+        <v>4.4681018266324806</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.319333243412506</v>
+        <v>3.3067721490237707</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2791966934405288</v>
+        <v>1.9001659621009799</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28885188617638902</v>
+        <v>0.3957826325013023</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>2.713178721747634E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>4.4211718387126263E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2128874462832587E-5</v>
+        <v>1.185002331535156E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>3.2029821870130849E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41531050282685161</v>
+        <v>0.63608082275059907</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>1.6827627566003391</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>2.1365353386193742</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>2.3504796430298098</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>2.1676929653959562</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.159666621706253</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61475957597384634</v>
+        <v>0.96871205911030334</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.19997438273750009</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>1.3697601313677372E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>5.9836751394349452E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.568877049180328E-5</v>
+        <v>9.6915573770491801E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5026424065100117E-5</v>
+        <v>5.2687208558105511E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1437921363337599E-2</v>
+        <v>8.0338827133001459E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>1.8186228334312662</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1573881494876144</v>
+        <v>4.4010718249547338</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9940563248679668</v>
+        <v>5.6392905536348117</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1339728573730801</v>
+        <v>6.6516974932000075</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3012915438866979</v>
+        <v>6.6025830877733958</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0082269723862249</v>
+        <v>5.7805145743892163</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3882243298505013</v>
+        <v>4.546811704907685</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2667773080673199</v>
+        <v>2.5335546161346398</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27496477626406263</v>
+        <v>0.5443747085631947</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7736637598479677E-3</v>
+        <v>3.58244957434639E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8872958946694704E-4</v>
+        <v>6.0753517783670107E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7435795922099285E-5</v>
+        <v>1.5643595135777635E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6404654597313755</v>
+        <v>4.4007757662189597</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.39406855012788</v>
+        <v>4.0300153927152644</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5568293386169518</v>
+        <v>4.0107126880265911</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5115279113852527</v>
+        <v>3.9443867839063258</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1528058404538744</v>
+        <v>3.6945842806469131</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459720973312663</v>
+        <v>3.0131846949565344</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7464387682832365</v>
+        <v>2.8536581181098635</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5977342931742362</v>
+        <v>2.6884952048604935</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4931845008705285</v>
+        <v>2.2753287632312817</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3334341125670524</v>
+        <v>2.222390187611754</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3578565841072376</v>
+        <v>2.3296559041055547</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.221419585897777</v>
+        <v>2.0999845511926694</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1750084679455486</v>
+        <v>2.0982294070456224</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1788881203994996</v>
+        <v>2.005325153256881</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5520910179827463</v>
+        <v>2.6116916167978905</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6739504975746642</v>
+        <v>2.7341191460386183</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.651395697157936</v>
+        <v>2.8927509661099897</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8652706268961921</v>
+        <v>3.2039512468795142</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8106567402050491</v>
+        <v>2.8668731719913279</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9272762223051392</v>
+        <v>2.9916869463886964</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537784617353441</v>
+        <v>3.2846625229774022</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0960022923470527</v>
+        <v>3.3253882522813818</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9752924630595459</v>
+        <v>3.1604679408952734</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2135220568395768</v>
+        <v>3.5401447036996596</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4765765027322405E-5</v>
+        <v>6.9917663934426224E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080168236262226E-5</v>
+        <v>4.1491176739508092E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.101508543105864E-2</v>
+        <v>6.5962405435516999E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182465870187089</v>
+        <v>1.311506851032163</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2221097939722427</v>
+        <v>3.268443046473736</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0521933408848207</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0700142276307725</v>
+        <v>4.6529903137528894</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2002315986656762</v>
+        <v>5.2045871788825995</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9197497084925126</v>
+        <v>4.5123404585793372</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3652606343711695</v>
+        <v>3.547890951556754</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2295191519476927</v>
+        <v>1.8070205718019121</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26385508833420152</v>
+        <v>0.42077943034348975</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7385417051975127E-3</v>
+        <v>2.607812557796269E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0075998902806984E-4</v>
+        <v>4.5113998354210478E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.430707689494376E-5</v>
+        <v>1.185002331535156E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7534781420765025E-5</v>
+        <v>7.2686680327868858E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6343604279052755E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2283593227895509E-2</v>
+        <v>6.342538984184326E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87433790068810868</v>
+        <v>1.2459315084805549</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2221097939722427</v>
+        <v>3.3008038687160504</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0231248328763938</v>
+        <v>4.5346872493145902</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2938694317288499</v>
+        <v>4.9887731199000056</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5034114343287408</v>
+        <v>5.0024672884405579</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0672118149820333</v>
+        <v>4.6450563544199062</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3422969388918378</v>
+        <v>3.3067721490237707</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1922609958280657</v>
+        <v>1.8815368840411661</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26940993229913207</v>
+        <v>0.42077943034348975</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6682975958966031E-3</v>
+        <v>2.581471016808428E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0978278869891194E-4</v>
+        <v>4.6016278321294683E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8217975678888173E-5</v>
+        <v>1.196735027886989E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303520160921642E-5</v>
+        <v>2.0350434305568254E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.62296575424027745</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.6989431677214966</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>2.1801381006320146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188596968420645</v>
+        <v>2.1455736494225279</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59613049791403283</v>
+        <v>0.9128248249308627</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0.21247278165859385</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>5.6316942488799482E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_3/ieee18_3_2035.xlsx
+++ b/data/IEEE9/ieee18_3/ieee18_3_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45A1FC-3351-45BD-B518-C4F0342CB760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0D815-9B09-4518-B2BE-B64157C5EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="4275" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="4620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4857923497267758E-5</v>
+        <v>7.5584699453551908E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1397092438511473E-5</v>
+        <v>4.2233397336259178E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,19 +13510,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4437268347862231E-2</v>
+        <v>6.6472129453584189E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303152462362018</v>
+        <v>1.3441726967178289</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2865481692137464</v>
+        <v>3.3881939888801509</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7205291374823339</v>
+        <v>4.3120218082771311</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13530,35 +13530,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3039917978344384</v>
+        <v>5.1448720438994053</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3869653565234801</v>
+        <v>4.7563940181254578</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8001309393928682</v>
+        <v>3.4712734542531001</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0214565432273512</v>
+        <v>2.0610929460357306</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45483222435159681</v>
+        <v>0.45920561112420832</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9535806042142723E-3</v>
+        <v>2.7848045696877424E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.706680316627121E-4</v>
+        <v>4.9518199164514504E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.292859102130383E-4</v>
+        <v>1.2799305111090792E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,27 +13583,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1773238476944492</v>
+        <v>5.8715157364224453</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7267068061426265</v>
+        <v>5.2819140445004802</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2933786454152987</v>
+        <v>5.2388077315450392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6336651342218751</v>
+        <v>5.1960989102046407</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.926112374195883</v>
+        <v>4.8313794439228852</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3060327395135314</v>
+        <v>4.0133897377990193</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13611,19 +13611,19 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2326695865978539</v>
+        <v>3.1666967378917747</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0680547450994307</v>
+        <v>3.3587125630562191</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0671879314008503</v>
+        <v>2.860742589864254</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9287747034485836</v>
+        <v>2.8127836260842827</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13631,27 +13631,27 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5973499811680121</v>
+        <v>2.7326286260205137</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6392385705645061</v>
+        <v>2.7192154969452487</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4249438008923883</v>
+        <v>3.2234765184869536</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9245036323788751</v>
+        <v>3.7749987320977754</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7498698819286735</v>
+        <v>4.1014201833594868</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2805296353054372</v>
+        <v>4.1508166160537572</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13659,19 +13659,19 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0382353828904929</v>
+        <v>4.3326900462262579</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6021681411623891</v>
+        <v>4.3809100574526587</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3591781633108582</v>
+        <v>4.4954024809143229</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6139061820946949</v>
+        <v>4.2184285093437204</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5053278688524585E-5</v>
+        <v>5.6143442622950818E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0734204992228217E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,23 +13712,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1380242919479624E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0808811375669141</v>
+        <v>0.99773643467715134</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4140882170771074</v>
+        <v>2.4649111269103097</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5403968531117505</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.642346516959952</v>
+        <v>3.7561698456149504</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13736,31 +13736,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6365633876444647</v>
+        <v>3.5326615765689078</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6582646715464531</v>
+        <v>2.6856694619747672</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4566378032079441</v>
+        <v>1.4120468500485173</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3280040079458631</v>
+        <v>0.33456408810478033</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1729914445290715E-3</v>
+        <v>2.0675064229499903E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8609486972331856E-4</v>
+        <v>3.6035521174176396E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3085855353387573E-5</v>
+        <v>9.8903721312974287E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3963114754098352E-5</v>
+        <v>5.4508196721311469E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0734204992228217E-5</v>
+        <v>3.1047819328883605E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9345381813757652E-2</v>
+        <v>5.1380242919479624E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13821,31 +13821,31 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5919684014933155</v>
+        <v>2.6682027662431187</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5744391305455174</v>
+        <v>3.4723122982442165</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9838165029249475</v>
+        <v>3.718228736063284</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4287597654933517</v>
+        <v>3.4633937025185375</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7130742524030813</v>
+        <v>2.850098204544651</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4120468500485173</v>
+        <v>1.5309560584736557</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0675064229499903E-3</v>
+        <v>2.0253124143183579E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7506358773122374E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4055499679985356E-5</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8616803278688522E-5</v>
+        <v>2.6981557377049176E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.583752400109719E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,19 +13914,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5435763821524564E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2197498359968544</v>
+        <v>1.2451612909134555</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.685092732971458</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,15 +13934,15 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0287768626716729</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.6797459457214905</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13950,19 +13950,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1607219638934729</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0126562071591789E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9120888786297677E-4</v>
+        <v>1.7466196487483454E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0906327146383832E-5</v>
+        <v>5.042150498308494E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0497267759562826E-5</v>
+        <v>7.2677595628415292E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.265154978513303E-5</v>
+        <v>4.3487854682880742E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9185277594546818E-2</v>
+        <v>6.4437268347862231E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3996024986443374</v>
+        <v>1.3718875976810831</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4220759287689524</v>
+        <v>3.3543120489913494</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.448190918012199</v>
+        <v>4.3574115115221534</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2105790450954865</v>
+        <v>4.907050168682157</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0387922079427163</v>
+        <v>5.5161514697478164</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5716796873244689</v>
+        <v>4.7102154354252104</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5808926159663561</v>
+        <v>3.5078131748241854</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.962001939014782</v>
+        <v>1.9818201404189717</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460854508063738</v>
+        <v>0.4504588375789853</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7848045696877424E-3</v>
+        <v>2.7285458915122323E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1479315963109137E-4</v>
+        <v>4.9027919964865843E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2282161470238639E-4</v>
+        <v>1.3057876931516868E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14261,27 +14261,27 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.671107710937358</v>
+        <v>5.2819140445004802</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4025204731558212</v>
+        <v>5.3479495592855599</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5242735782175654</v>
+        <v>5.4148820222132574</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7366465136498874</v>
+        <v>4.5945471182403903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9715835946969458</v>
+        <v>4.055195880901092</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5269928534282498</v>
+        <v>3.7474299067675156</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14289,39 +14289,39 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1649406844183603</v>
+        <v>3.2941219368435992</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8312503982161692</v>
+        <v>2.860742589864254</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0157680114718084</v>
+        <v>2.7547880874021322</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.976233172224465</v>
+        <v>2.7739648983839671</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.651461439109013</v>
+        <v>2.5702942521975123</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7725334478657437</v>
+        <v>2.5326026687235159</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4920995616942001</v>
+        <v>3.2570543988878593</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9245036323788751</v>
+        <v>3.8123749571680499</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7889310265320972</v>
+        <v>3.7108087373252503</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14329,23 +14329,23 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9878182710002186</v>
+        <v>4.3167104995363195</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2485601424160393</v>
+        <v>4.3747549981313671</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6021681411623891</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.677034904385609</v>
+        <v>4.6316267985177877</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2184285093437204</v>
+        <v>4.3502544002607122</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3418032786885243E-5</v>
+        <v>5.5053278688524585E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.167504800219438E-5</v>
+        <v>3.2615891012160557E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,27 +14386,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9854097090188142E-2</v>
+        <v>5.2906388748771099E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0081295225383717</v>
+        <v>1.0497018739832531</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5411454916601133</v>
+        <v>2.6173798564099164</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4042277433766825</v>
+        <v>3.4723122982442165</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9079342838216151</v>
+        <v>3.642346516959952</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1768935407946204</v>
+        <v>3.9382139098920708</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14414,27 +14414,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.740479042831395</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5309560584736557</v>
+        <v>1.5160924074205133</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34440420834315622</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1307974358974391E-3</v>
+        <v>2.0042154100025416E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4932392974966909E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3085855353387573E-5</v>
+        <v>9.599478833318095E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.287295081967212E-5</v>
+        <v>5.3963114754098352E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1988662338849774E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3415104025201582E-2</v>
+        <v>5.2906388748771099E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0600949618444733</v>
+        <v>1.0912742254281345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.5665569465767142</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4042277433766825</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.718228736063284</v>
+        <v>3.7561698456149504</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8984339714083118</v>
+        <v>4.1371136023108619</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3941258284681668</v>
+        <v>3.5326615765689078</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7678838332597091</v>
+        <v>2.6856694619747672</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4566378032079441</v>
+        <v>1.4269105011016596</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33128404802532174</v>
+        <v>0.3280040079458631</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0464094186341741E-3</v>
+        <v>2.1729914445290715E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7138649373385878E-4</v>
+        <v>3.530010237470341E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2116211026789789E-5</v>
+        <v>1.0181265429276766E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.8616803278688522E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5523909664441802E-5</v>
+        <v>1.6307945506080278E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5435763821524564E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50406476126918587</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2451612909134555</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7191350104052248</v>
+        <v>1.685092732971458</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.859114368031642</v>
+        <v>1.9729376966866403</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0287768626716729</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.7490138197718614</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3702395214156975</v>
+        <v>1.3839419166298546</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75061437818368559</v>
+        <v>0.76547802923682784</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16236198393320223</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0126562071591789E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8385469986824691E-4</v>
+        <v>1.8753179386561187E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7997394166590475E-5</v>
+        <v>5.0906327146383832E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1950819672131141E-5</v>
+        <v>7.4131147540983593E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.097893998963762E-5</v>
+        <v>4.1815244887385325E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7828703524065503E-2</v>
+        <v>7.0541851665028132E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3996024986443374</v>
+        <v>1.3164577957545747</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3204301091025479</v>
+        <v>3.2865481692137464</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6751394342373107</v>
+        <v>4.3120218082771311</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1599908990265986</v>
+        <v>5.3117553372332633</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5691913877261605</v>
+        <v>5.3039917978344384</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7102154354252104</v>
+        <v>4.5716796873244689</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4712734542531001</v>
+        <v>3.8366706599639535</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0016383418231616</v>
+        <v>1.9223655362064025</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43296529048853927</v>
+        <v>0.41547174339809323</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7848045696877424E-3</v>
+        <v>2.7285458915122323E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0989036763460476E-4</v>
+        <v>4.9027919964865843E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3316448751942946E-4</v>
+        <v>1.3575020572369022E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,31 +14931,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3608087144576508</v>
+        <v>6.1773238476944492</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4487113301162848</v>
+        <v>5.671107710937358</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2388077315450392</v>
+        <v>5.6208041286368644</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4695778002154114</v>
+        <v>5.6336651342218751</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.926112374195883</v>
+        <v>4.7840129787863868</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.055195880901092</v>
+        <v>4.2642265964114578</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7474299067675156</v>
+        <v>3.8209089245472709</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2941219368435992</v>
+        <v>3.2295313106309798</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,59 +14971,59 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8997769341075079</v>
+        <v>2.9287747034485836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.976233172224465</v>
+        <v>2.7450694306924679</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8408515419025138</v>
+        <v>2.6244057101385128</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5592616441837635</v>
+        <v>2.7991924233259913</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5256774420951058</v>
+        <v>3.2234765184869536</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5507413816761249</v>
+        <v>3.8123749571680499</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7889310265320972</v>
+        <v>3.8279921711355214</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2805296353054372</v>
+        <v>4.1940542891376511</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.234487442402294</v>
+        <v>4.3167104995363195</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3326900462262579</v>
+        <v>3.9961704309853836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2924068239687667</v>
+        <v>4.3809100574526587</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6316267985177877</v>
+        <v>4.3137700574430369</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2184285093437204</v>
+        <v>4.2623704729827177</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7671269918745161</v>
+        <v>4.8664421375385691</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1782786885245893E-5</v>
+        <v>5.3418032786885243E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,23 +15060,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9854097090188142E-2</v>
+        <v>5.1380242919479624E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0808811375669141</v>
+        <v>1.0185226103995921</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5411454916601133</v>
+        <v>2.6427913113265178</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2340163562078486</v>
+        <v>3.4382700208104495</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6802876265116176</v>
+        <v>3.6044054074082852</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15084,19 +15084,19 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2902240173926103</v>
+        <v>3.6365633876444647</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.850098204544651</v>
+        <v>2.6582646715464531</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4566378032079441</v>
+        <v>1.5012287563673712</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32472396786640445</v>
+        <v>0.31488384762802857</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.696443265977872E-5</v>
+        <v>9.4055499679985356E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5053278688524585E-5</v>
+        <v>5.4508196721311469E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1888958195910113E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0912742254281345</v>
+        <v>1.0600949618444733</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.6427913113265178</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4382700208104495</v>
+        <v>3.3361431885091495</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,35 +15181,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5672955135940931</v>
+        <v>3.359491891442981</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.850098204544651</v>
+        <v>2.630859881118139</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863651053142288</v>
+        <v>1.4715014542610865</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31160380754856992</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1940884488448878E-3</v>
+        <v>2.215185453160704E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4932392974966909E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8903721312974287E-5</v>
+        <v>9.9873365639572097E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.6981557377049176E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6151138337752581E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,23 +15262,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4672690906878826E-2</v>
+        <v>2.4163975630448337E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.54044056878345703</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.257867018371756</v>
+        <v>1.2070441085385537</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.8970554775833082</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15286,31 +15286,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6624289772088978</v>
+        <v>1.6970629142340834</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3154299405590695</v>
+        <v>1.4387514974864826</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72088707607740088</v>
+        <v>0.70602342502425863</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1607219638934729</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.107592726580352E-3</v>
+        <v>1.0337532114749952E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6058105513394895E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3223551912568299E-5</v>
+        <v>9.5992568306010932E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,51 +26485,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3721514591233101E-2</v>
+        <v>8.4567186455791019E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8011360754175039</v>
+        <v>1.7836493174037418</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.487367350934238</v>
+        <v>4.3147762989752287</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8137016016853726</v>
+        <v>5.8718386177022266</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7156561229423151</v>
+        <v>6.1400284552615449</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6025830877733958</v>
+        <v>6.4678364941453665</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6625448891975996</v>
+        <v>5.8394994169850252</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3631021410730311</v>
+        <v>4.7764486597010025</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5335546161346398</v>
+        <v>2.6080709283738939</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5443747085631947</v>
+        <v>0.53326502063333359</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.617571628996845E-3</v>
+        <v>3.6878157382977546E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3159597695894667E-4</v>
+        <v>5.7745917893389407E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,11 +26558,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5368822332154224</v>
+        <v>4.3100381215546513</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1098176777195272</v>
+        <v>4.18961996272379</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26570,19 +26570,19 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.86388909443885</v>
+        <v>4.145631007575016</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6590594317945389</v>
+        <v>3.5880097340897903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1083378958498988</v>
+        <v>3.0449024285876556</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.71097521220437</v>
+        <v>2.9392678616531596</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26590,67 +26590,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3227314457985999</v>
+        <v>2.2990301045149404</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698732139521239</v>
+        <v>2.1134494921405893</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1077839132383591</v>
+        <v>2.3074687050188354</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0999845511926694</v>
+        <v>2.2285550339187514</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0382799954157478</v>
+        <v>2.0782462698356645</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.005325153256881</v>
+        <v>2.1066042014011681</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4375788423446973</v>
+        <v>2.4624520958380107</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7062199710790407</v>
+        <v>2.7620183209981963</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8927509661099897</v>
+        <v>2.8084960836019319</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1405066677333848</v>
+        <v>3.267395826025643</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0177612336750821</v>
+        <v>3.0781164583485836</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1491441540933645</v>
+        <v>2.9916869463886964</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575394978709499</v>
+        <v>3.3538133129348213</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4597473735856803</v>
+        <v>3.5269269342378298</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1604679408952734</v>
+        <v>3.2263110229972582</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9127915146154142</v>
+        <v>3.5401447036996596</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9917663934426224E-5</v>
+        <v>7.0609918032786889E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9515406418579133E-5</v>
+        <v>3.7934790161835966E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.342538984184326E-2</v>
+        <v>6.5328151537098561E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2590465769908765</v>
+        <v>1.3770821935837712</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1713605797467928</v>
+        <v>3.3331646909583643</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4038789632766697</v>
+        <v>4.2294679152261088</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7489282583663517</v>
+        <v>4.6529903137528894</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.0024672884405579</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3353859307919125</v>
+        <v>4.4681018266324806</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6167820379947493</v>
+        <v>3.3756632354617659</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8070205718019121</v>
+        <v>1.9001659621009799</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41661329736979186</v>
+        <v>0.43327782926458352</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6604956397719517E-3</v>
+        <v>2.5024463938449048E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.376057840358416E-4</v>
+        <v>4.646741830483679E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732696351833227E-4</v>
+        <v>1.2202004205906554E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9225409836065572E-5</v>
+        <v>7.0609918032786889E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8329944226021757E-5</v>
+        <v>3.9120252354393341E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,43 +26788,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2156882045006398E-2</v>
+        <v>6.6596659333935437E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2590465769908765</v>
+        <v>1.3770821935837712</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1713605797467928</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2730706772387483</v>
+        <v>4.1422623912008278</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7489282583663517</v>
+        <v>4.6529903137528894</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0529972610510683</v>
+        <v>4.9519373158300466</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3353859307919125</v>
+        <v>4.4681018266324806</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3412176922427683</v>
+        <v>3.4445543218997612</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9187950401607932</v>
+        <v>1.7697624156822849</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39994876547500019</v>
+        <v>0.41661329736979186</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26832,11 +26832,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.556513833775258E-4</v>
+        <v>4.6016278321294683E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732696351833227E-4</v>
+        <v>1.2084677242388224E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3920450819672128E-5</v>
+        <v>3.5304959016393445E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350434305568254E-5</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,51 +26889,51 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.076131407329398E-2</v>
+        <v>3.0127060174875549E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62952328849543826</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5856802898733964</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1147339576130544</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3744641291831758</v>
+        <v>2.3504796430298098</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.652823562051811</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2119315973428124</v>
+        <v>2.1013350174756718</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7394999325593794</v>
+        <v>1.773945475778377</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95008298105048994</v>
+        <v>0.8941957468710493</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20414051571119801</v>
+        <v>0.21872198111914071</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3039062788981345E-3</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,7 +27216,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3223551912568299E-5</v>
+        <v>8.953153005464481E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.203017086211728E-2</v>
+        <v>8.625853018490684E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8361095914450283</v>
+        <v>1.8186228334312662</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2284807729957237</v>
+        <v>4.487367350934238</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7555645856685187</v>
+        <v>5.9299756337190805</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3958629742307762</v>
+        <v>6.5877388634576999</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8047029782154382</v>
+        <v>6.5352097909593816</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6625448891975996</v>
+        <v>5.7805145743892163</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.822376050659666</v>
+        <v>4.7764486597010025</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6080709283738939</v>
+        <v>2.3596832209097132</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58325861631770859</v>
+        <v>0.56103924045798637</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3717172464436613E-3</v>
+        <v>3.6878157382977546E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7745917893389407E-4</v>
+        <v>6.2558077717838527E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5956467038493187E-4</v>
+        <v>1.626933894120874E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27317,63 +27317,63 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1098176777195272</v>
+        <v>3.7906085377024761</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1360474595274219</v>
+        <v>4.0524909451935347</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8236402497051118</v>
+        <v>4.2261286970424923</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5524848852374165</v>
+        <v>3.7301091294992874</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2986442976366268</v>
+        <v>3.2034910967432628</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9392678616531596</v>
+        <v>2.71097521220437</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5092621912031272</v>
+        <v>2.4836574749663605</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.346432787082259</v>
+        <v>2.2516274219476222</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0916613530463564</v>
+        <v>2.1570257703290552</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1743455104985179</v>
+        <v>2.1299711123250784</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499834477064318</v>
+        <v>2.1642697925557104</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.998313720995831</v>
+        <v>2.0782462698356645</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1268600110300255</v>
+        <v>1.9243019147414511</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6116916167978905</v>
+        <v>2.3629590818647577</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7062199710790407</v>
+        <v>2.7620183209981963</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27381,11 +27381,11 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1405066677333848</v>
+        <v>3.0136175094411266</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0479388460118328</v>
+        <v>2.9574060090015801</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27393,15 +27393,15 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4229641028922404</v>
+        <v>3.5958410777857881</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4261575932596058</v>
+        <v>3.3589780326074563</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.357997187201228</v>
+        <v>3.2263110229972582</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9120252354393341E-5</v>
+        <v>4.1491176739508092E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5962405435516999E-2</v>
+        <v>6.152262814658796E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3508520565631279</v>
+        <v>1.2459315084805549</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2360822242314216</v>
+        <v>3.3331646909583643</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3166734392513888</v>
+        <v>4.5782900113272316</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7009592860596197</v>
+        <v>4.9887731199000056</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0529972610510683</v>
+        <v>5.2551171514931116</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5565790905261938</v>
+        <v>4.3796245627387691</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5823364947757517</v>
+        <v>3.5134454083377564</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8070205718019121</v>
+        <v>1.9187950401607932</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39994876547500019</v>
+        <v>0.3957826325013023</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6341540987841103E-3</v>
+        <v>2.7658618037233159E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6016278321294683E-4</v>
+        <v>4.5113998354210478E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1615369388314893E-4</v>
+        <v>1.2319331169424887E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1302172131147541E-5</v>
+        <v>6.7148647540983604E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0700868611136509E-5</v>
+        <v>3.9515406418579133E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4693897638680137E-2</v>
+        <v>6.152262814658796E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2590465769908765</v>
+        <v>1.3377369880528063</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.07427811301985</v>
+        <v>3.3008038687160504</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4910844873019506</v>
+        <v>4.4038789632766697</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8448662029798131</v>
+        <v>4.7009592860596197</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8003473979985145</v>
+        <v>5.2045871788825995</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4681018266324806</v>
+        <v>4.4238631946856248</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3067721490237707</v>
+        <v>3.6167820379947493</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9001659621009799</v>
+        <v>1.9374241182206067</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3957826325013023</v>
+        <v>0.43327782926458352</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.713178721747634E-3</v>
+        <v>2.6341540987841103E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4211718387126263E-4</v>
+        <v>4.466285837066837E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185002331535156E-4</v>
+        <v>1.1498042424796562E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3228196721311469E-5</v>
+        <v>3.5997213114754103E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,27 +27644,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.1078441022503199E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.62952328849543826</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6827627566003391</v>
+        <v>1.6665823454791822</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1365353386193742</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3504796430298098</v>
+        <v>2.4464175876432721</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,23 +27672,23 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.687831617730883</v>
+        <v>1.7394999325593794</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96871205911030334</v>
+        <v>0.92213936396076956</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19997438273750009</v>
+        <v>0.20414051571119801</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697601313677372E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2105859193563131E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6915573770491801E-5</v>
+        <v>8.8608524590163927E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2687208558105511E-5</v>
+        <v>5.3214080643686569E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,23 +27914,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0338827133001459E-2</v>
+        <v>8.1184498997559376E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186228334312662</v>
+        <v>1.6787287693211685</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4010718249547338</v>
+        <v>4.3579240619649813</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6392905536348117</v>
+        <v>5.6974275696516647</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6516974932000075</v>
+        <v>6.4598216039730838</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27942,11 +27942,11 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.546811704907685</v>
+        <v>4.822376050659666</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5335546161346398</v>
+        <v>2.4341995331489672</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27954,7 +27954,7 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.58244957434639E-3</v>
+        <v>3.617571628996845E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5643595135777635E-4</v>
+        <v>1.6425774892566517E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4007757662189597</v>
+        <v>4.5822510555475766</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0300153927152644</v>
+        <v>4.1098176777195272</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0107126880265911</v>
+        <v>4.3867170025290845</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9443867839063258</v>
+        <v>4.145631007575016</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6945842806469131</v>
+        <v>3.6590594317945389</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0131846949565344</v>
+        <v>3.0766201622187772</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8536581181098635</v>
+        <v>2.9107312804720609</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6884952048604935</v>
+        <v>2.6116810561501942</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2753287632312817</v>
+        <v>2.4412381522168962</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.222390187611754</v>
+        <v>2.2441783267059865</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3296559041055547</v>
+        <v>2.2852815059321157</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0999845511926694</v>
+        <v>2.1642697925557104</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0982294070456224</v>
+        <v>2.0382799954157478</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.005325153256881</v>
+        <v>2.1268600110300255</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6116916167978905</v>
+        <v>2.5121986028246375</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7341191460386183</v>
+        <v>2.8457158458769296</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8927509661099897</v>
+        <v>2.6680712794218353</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2039512468795142</v>
+        <v>3.2356735364525786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8668731719913279</v>
+        <v>3.1384716830220856</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9916869463886964</v>
+        <v>3.212127037175232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2846625229774022</v>
+        <v>3.4921148928496599</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3253882522813818</v>
+        <v>3.2917984719553073</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1604679408952734</v>
+        <v>3.4567618103542053</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5401447036996596</v>
+        <v>3.8382621524322631</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9917663934426224E-5</v>
+        <v>6.8533155737704921E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1491176739508092E-5</v>
+        <v>3.8725098290207549E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5962405435516999E-2</v>
+        <v>6.342538984184326E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28124,47 +28124,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.268443046473736</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2730706772387483</v>
+        <v>4.5782900113272316</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6529903137528894</v>
+        <v>4.8448662029798131</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.0024672884405579</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5123404585793372</v>
+        <v>4.2911472988450559</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.547890951556754</v>
+        <v>3.5134454083377564</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8070205718019121</v>
+        <v>1.9374241182206067</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42077943034348975</v>
+        <v>0.42911169629088564</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.607812557796269E-3</v>
+        <v>2.5287879348327462E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5113998354210478E-4</v>
+        <v>4.3309438420042058E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185002331535156E-4</v>
+        <v>1.1380715461278228E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2686680327868858E-5</v>
+        <v>6.9917663934426224E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0700868611136509E-5</v>
+        <v>3.7934790161835966E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,35 +28217,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.342538984184326E-2</v>
+        <v>6.5962405435516999E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2459315084805549</v>
+        <v>1.3246219195424846</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3008038687160504</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5346872493145902</v>
+        <v>4.4038789632766697</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9887731199000056</v>
+        <v>4.8448662029798131</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0024672884405579</v>
+        <v>5.1540572062720891</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6450563544199062</v>
+        <v>4.6008177224730495</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3067721490237707</v>
+        <v>3.547890951556754</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28253,19 +28253,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42077943034348975</v>
+        <v>0.40828103142239602</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.581471016808428E-3</v>
+        <v>2.713178721747634E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6016278321294683E-4</v>
+        <v>4.556513833775258E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.196735027886989E-4</v>
+        <v>1.185002331535156E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3228196721311469E-5</v>
+        <v>3.5997213114754103E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350434305568254E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,51 +28318,51 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.171269492092163E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62296575424027745</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6989431677214966</v>
+        <v>1.6827627566003391</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1801381006320146</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3264951568764447</v>
+        <v>2.3025106707230796</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.5264986305255341</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1234543334491001</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9128248249308627</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21247278165859385</v>
+        <v>0.21872198111914071</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2643939674163731E-3</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2105859193563131E-4</v>
+        <v>2.36848491359605E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
